--- a/biology/Botanique/Whitfieldia/Whitfieldia.xlsx
+++ b/biology/Botanique/Whitfieldia/Whitfieldia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Whitfieldia est un genre de plantes herbacées à fleurs de la famille des Acanthaceae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[1]   6 octobre 2012
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"   6 octobre 2012
 Whitfieldia elongata  (P.Beauv.) De Wild. &amp; T.Durand ,  (1899)
 Whitfieldia liebrechtsiana  De Wild. &amp; T.Durand ,  (1899)
 Whitfieldia preussii  (Lindau) C.B. Clarke ,  (1899)
@@ -546,9 +560,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[1]   6 octobre 2012
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"   6 octobre 2012
 Whitfieldia brazzei C.B. Clarke = Whitfieldia thollonii  R. Benoist ,
 Whitfieldia gilletii De Wild. 	= Whitfieldia thollonii  R. Benoist ,
 Whitfieldia longiflora S.Moore  = Whitfieldia elongata  (P.Beauv.) De Wild. &amp; T.Durand ,  (1899)
@@ -584,9 +600,11 @@
           <t>Espèces au statut non encore résolu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[1]   6 octobre 2012
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"   6 octobre 2012
 Whitfieldia arnoldiana De Wild. &amp; T.Durand
 Whitfieldia colorata C.B.Clarke
 Whitfieldia lateritia Hook.
